--- a/biology/Zoologie/Gladys_Porter_Zoo/Gladys_Porter_Zoo.xlsx
+++ b/biology/Zoologie/Gladys_Porter_Zoo/Gladys_Porter_Zoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Gladys Porter Zoo (GPZ) est un parc zoologique et botanique situé à Brownsville, au Texas, aux États-Unis. Il a été ouvert le 3 septembre 1971 et il y en a en moyenne 375 000 visiteurs par an. Situé sur 31 acres (13 ha), le zoo abrite environ 400 espèces animales (dont 47 espèces en voie de disparition) et plus de 250 espèces et sous-espèces tropicales et néo-tropicales. C'est le premier zoo à avoir réussi à élever le Céphalophe de Jentink, espèce vulnérable (bien qu'aucun ne soit actuellement en captivité aux États-Unis).
